--- a/Documents/SneakR-Test.xlsx
+++ b/Documents/SneakR-Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R01\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R01\Documents\GitHub\sneakR\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CAE4B57-69ED-48F8-AC4A-464C82792E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15924CEC-EFD9-4405-BC87-4B969E714661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="4905" windowWidth="28800" windowHeight="15345" xr2:uid="{2F5C614F-0953-44C5-BF18-382FEDFD8664}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2F5C614F-0953-44C5-BF18-382FEDFD8664}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>Teszt eset azonosító</t>
   </si>
@@ -56,6 +55,171 @@
   </si>
   <si>
     <t>Státusz</t>
+  </si>
+  <si>
+    <t>TESTCASE_1</t>
+  </si>
+  <si>
+    <t>Sikeres regisztráció</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a felhasználó tud-e sikeresen regisztrálni érvényes, egyedi adatokkal.</t>
+  </si>
+  <si>
+    <t>TESTCASE_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rendszer sikeres regisztrációt jelez. A felhasználó be tud lépni az új fiókkal.	</t>
+  </si>
+  <si>
+    <t>Sikertelen regisztráció - Üres mezők</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a rendszer helyesen kezeli-e, ha a kötelező regisztrációs mezőket üresen hagyják.</t>
+  </si>
+  <si>
+    <t>1. Navigálj a főoldalra.  2. Kattints a "Regisztráció" gombra.  3. Töltsd ki az összes kötelező mezőt érvényes és egyedi adatokkal. 4. Kattints a "Regisztráció" gombra.</t>
+  </si>
+  <si>
+    <t>A rendszer hibaüzenetet jelenít meg, ami jelzi, melyik kötelező mező(k) hiányoznak. A regisztráció sikertelen.</t>
+  </si>
+  <si>
+    <t>1. Navigálj a főoldalra.  2. Kattints a "Regisztráció" gombra. 3. Hagyd üresen egy vagy több kötelező mezőt.  4. Kattints a "Regisztráció" gombra.</t>
+  </si>
+  <si>
+    <t>Sikertelen regisztráció - Foglalt email</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a rendszer nem enged regisztrálni már létező email címmel.</t>
+  </si>
+  <si>
+    <t>1. Navigálj a főoldalra.  2. Kattints a "Regisztráció" gombra. 3. Tölts ki minden mezőt érvényesen, de használj egy már regisztrált email címet. 4. Kattints a "Regisztráció" gombra.</t>
+  </si>
+  <si>
+    <t>A rendszer hibaüzenetet jelenít meg, ami jelzi, hogy az email cím már foglalt. A regisztráció sikertelen.</t>
+  </si>
+  <si>
+    <t>Sikertelen regisztráció - Jelszó eltérés</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a rendszer hibaüzenetet ad, ha a jelszó és a jelszó megerősítése mezők nem egyeznek.</t>
+  </si>
+  <si>
+    <t>A rendszer hibaüzenetet jelenít meg, ami jelzi, hogy a jelszavak nem egyeznek. A regisztráció sikertelen.</t>
+  </si>
+  <si>
+    <t>1. Navigálj a főoldalra.  2. Kattints a "Regisztráció" gombra.  3. Tölts ki minden mezőt érvényesen, de a "Jelszó" és "Jelszó megerősítése" mezőkbe írj különböző értéket. 4. Kattints a "Regisztráció" gombra.</t>
+  </si>
+  <si>
+    <t>TESTCASE_3</t>
+  </si>
+  <si>
+    <t>TESTCASE_4</t>
+  </si>
+  <si>
+    <t>TESTCASE_6</t>
+  </si>
+  <si>
+    <t>TESTCASE_7</t>
+  </si>
+  <si>
+    <t>TESTCASE_8</t>
+  </si>
+  <si>
+    <t>TESTCASE_5</t>
+  </si>
+  <si>
+    <t>Sikeres bejelentkezés</t>
+  </si>
+  <si>
+    <t>Sikertelen bejelentkezés - Helytelen jelszó</t>
+  </si>
+  <si>
+    <t>Sikertelen bejelentkezés - Helytelen email/felh.</t>
+  </si>
+  <si>
+    <t>Sikertelen bejelentkezés - Üres mezők</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy egy regisztrált felhasználó be tud-e jelentkezni érvényes email és jelszó párossal.</t>
+  </si>
+  <si>
+    <t>1. Navigálj a főoldalra. 2. Add meg az érvényes, regisztrált email címet. 3. Add meg a hozzá tartozó helyes jelszót.  4. Kattints a "Bejelentkezés" gombra.</t>
+  </si>
+  <si>
+    <t>A felhasználó sikeresen bejelentkezik, és a rendszer átirányítja a bejelentkezés utáni oldalra (ahol a képernyő kettéágazik).</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a rendszer hibaüzenetet ad érvényes email/felhasználónév, de helytelen jelszó esetén.</t>
+  </si>
+  <si>
+    <t>1. Navigálj a főoldalra.  2. Add meg az érvényes, regisztrált email címet. 3. Add meg a helytelen jelszót.  4. Kattints a "Bejelentkezés" gombra.</t>
+  </si>
+  <si>
+    <t>A rendszer hibaüzenetet jelenít meg (pl. "Hibás email cím vagy jelszó"). A felhasználó a bejelentkezési felületen marad.</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a rendszer hibaüzenetet ad nem létező email és bármilyen jelszó esetén.</t>
+  </si>
+  <si>
+    <t>1. Navigálj a főoldalra. 2. Adj meg egy nem regisztrált email címet. 3. Adj meg egy tetszőleges jelszót.  4. Kattints a "Bejelentkezés" gombra.</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a rendszer hibaüzenetet ad, ha az email vagy a jelszó mezőt üresen hagyják.</t>
+  </si>
+  <si>
+    <t>1. Navigálj a főoldalra.  2. Hagyd üresen az email vagy a jelszó mezőt (vagy mindkettőt). 3. Kattints a "Bejelentkezés" gombra.</t>
+  </si>
+  <si>
+    <t>A rendszer hibaüzenetet jelenít meg, ami jelzi, hogy melyik mező(k) kitöltése kötelező. A felhasználó a bejelentkezési felületen marad.</t>
+  </si>
+  <si>
+    <t>Kettéosztott képernyő megjelenése</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy sikeres bejelentkezés után megjelenik-e a felhasználónak a "select" oldal, és helyesen látszik a kettéosztott oldal.</t>
+  </si>
+  <si>
+    <t>1. Hajts végre egy sikeres bejelentkezést (lásd TESTCASE_1).</t>
+  </si>
+  <si>
+    <t>A bejelentkezés utáni oldalon a képernyő vizuálisan ketté van osztva. A bal oldalon a "Webshop" rész látható, a jobb oldalon a "Resell" rész.</t>
+  </si>
+  <si>
+    <t>TESTCASE_9</t>
+  </si>
+  <si>
+    <t>Webshop szekció azonosítása</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a bal oldali szekció egyértelműen a webshopként van azonosítva.</t>
+  </si>
+  <si>
+    <t>1. Hajts végre egy sikeres bejelentkezést (lásd TESTCASE_1). 2. Vizsgáld meg a képernyő bal oldalát.</t>
+  </si>
+  <si>
+    <t>A bal oldali részen egyértelmű cím jelzi, hogy ez a "Webshop".</t>
+  </si>
+  <si>
+    <t>TESTCASE_10</t>
+  </si>
+  <si>
+    <t>Használt cipő szekció azonosítása</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a jobb oldali szekció egyértelműen a Resell-ként van azonosítva.</t>
+  </si>
+  <si>
+    <t>1. Hajts végre egy sikeres bejelentkezést (lásd TESTCASE_1).  2. Vizsgáld meg a képernyő jobb oldalát.</t>
+  </si>
+  <si>
+    <t>A jobb oldali részen egyértelmű cím jelzi, hogy ez a "Resell".</t>
+  </si>
+  <si>
+    <t>TESTCASE_11</t>
+  </si>
+  <si>
+    <t>Sikeres</t>
   </si>
 </sst>
 </file>
@@ -98,10 +262,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -416,22 +587,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5905388-1A89-4080-AA43-ED2C44BC5EE1}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="125.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1"/>
-    <col min="8" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="1" max="16384" width="35.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -456,18 +623,3133 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+    <row r="2" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+    </row>
+    <row r="155" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+    </row>
+    <row r="156" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+    </row>
+    <row r="160" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+    </row>
+    <row r="162" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+    </row>
+    <row r="163" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+    </row>
+    <row r="164" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+    </row>
+    <row r="166" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+    </row>
+    <row r="168" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+    </row>
+    <row r="169" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+    </row>
+    <row r="170" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+    </row>
+    <row r="173" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+    </row>
+    <row r="174" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+    </row>
+    <row r="175" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+    </row>
+    <row r="176" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+    </row>
+    <row r="177" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+    </row>
+    <row r="178" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+    </row>
+    <row r="179" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+    </row>
+    <row r="180" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+    </row>
+    <row r="181" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+    </row>
+    <row r="182" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+    </row>
+    <row r="184" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+    </row>
+    <row r="185" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+    </row>
+    <row r="187" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+    </row>
+    <row r="188" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+    </row>
+    <row r="189" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+    </row>
+    <row r="190" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+    </row>
+    <row r="192" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+    </row>
+    <row r="193" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+    </row>
+    <row r="194" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+    </row>
+    <row r="195" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+    </row>
+    <row r="196" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+    </row>
+    <row r="197" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+    </row>
+    <row r="198" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+    </row>
+    <row r="199" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+    </row>
+    <row r="200" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+    </row>
+    <row r="201" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+    </row>
+    <row r="202" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+    </row>
+    <row r="203" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+    </row>
+    <row r="204" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+    </row>
+    <row r="205" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+    </row>
+    <row r="206" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+    </row>
+    <row r="207" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+    </row>
+    <row r="208" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+    </row>
+    <row r="209" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+    </row>
+    <row r="210" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+    </row>
+    <row r="211" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+    </row>
+    <row r="212" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+    </row>
+    <row r="213" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+    </row>
+    <row r="214" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+    </row>
+    <row r="215" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+    </row>
+    <row r="216" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+    </row>
+    <row r="217" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+    </row>
+    <row r="218" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+    </row>
+    <row r="219" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+    </row>
+    <row r="220" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+    </row>
+    <row r="221" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+    </row>
+    <row r="222" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+    </row>
+    <row r="223" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+    </row>
+    <row r="224" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+    </row>
+    <row r="225" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+    </row>
+    <row r="226" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+    </row>
+    <row r="227" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+    </row>
+    <row r="228" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+    </row>
+    <row r="229" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+    </row>
+    <row r="230" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+    </row>
+    <row r="231" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+    </row>
+    <row r="232" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+    </row>
+    <row r="233" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+    </row>
+    <row r="234" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+    </row>
+    <row r="235" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+    </row>
+    <row r="236" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+    </row>
+    <row r="237" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+    </row>
+    <row r="238" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+    </row>
+    <row r="239" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+    </row>
+    <row r="240" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+    </row>
+    <row r="241" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+    </row>
+    <row r="242" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+    </row>
+    <row r="243" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+    </row>
+    <row r="244" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+    </row>
+    <row r="245" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+    </row>
+    <row r="246" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
+    </row>
+    <row r="247" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
+    </row>
+    <row r="248" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+    </row>
+    <row r="249" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+    </row>
+    <row r="250" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
+    </row>
+    <row r="251" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
+    </row>
+    <row r="252" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+    </row>
+    <row r="253" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
+    </row>
+    <row r="254" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1"/>
+      <c r="I254" s="1"/>
+    </row>
+    <row r="255" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1"/>
+      <c r="I255" s="1"/>
+    </row>
+    <row r="256" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+    </row>
+    <row r="257" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
+    </row>
+    <row r="258" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
+    </row>
+    <row r="259" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1"/>
+      <c r="I259" s="1"/>
+    </row>
+    <row r="260" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+    </row>
+    <row r="261" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
+    </row>
+    <row r="262" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
+    </row>
+    <row r="263" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="1"/>
+    </row>
+    <row r="264" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="1"/>
+    </row>
+    <row r="265" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+      <c r="I265" s="1"/>
+    </row>
+    <row r="266" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+      <c r="H266" s="1"/>
+      <c r="I266" s="1"/>
+    </row>
+    <row r="267" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="I267" s="1"/>
+    </row>
+    <row r="268" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1"/>
+      <c r="I268" s="1"/>
+    </row>
+    <row r="269" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1"/>
+      <c r="I269" s="1"/>
+    </row>
+    <row r="270" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1"/>
+      <c r="I270" s="1"/>
+    </row>
+    <row r="271" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="1"/>
+      <c r="I271" s="1"/>
+    </row>
+    <row r="272" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1"/>
+      <c r="I272" s="1"/>
+    </row>
+    <row r="273" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+      <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
+    </row>
+    <row r="274" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+      <c r="G274" s="1"/>
+      <c r="H274" s="1"/>
+      <c r="I274" s="1"/>
+    </row>
+    <row r="275" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1"/>
+      <c r="I275" s="1"/>
+    </row>
+    <row r="276" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1"/>
+      <c r="I276" s="1"/>
+    </row>
+    <row r="277" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+      <c r="H277" s="1"/>
+      <c r="I277" s="1"/>
+    </row>
+    <row r="278" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+      <c r="H278" s="1"/>
+      <c r="I278" s="1"/>
+    </row>
+    <row r="279" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+      <c r="H279" s="1"/>
+      <c r="I279" s="1"/>
+    </row>
+    <row r="280" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+      <c r="H280" s="1"/>
+      <c r="I280" s="1"/>
+    </row>
+    <row r="281" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="H281" s="1"/>
+      <c r="I281" s="1"/>
+    </row>
+    <row r="282" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="1"/>
+      <c r="I282" s="1"/>
+    </row>
+    <row r="283" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+      <c r="H283" s="1"/>
+      <c r="I283" s="1"/>
+    </row>
+    <row r="284" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+      <c r="H284" s="1"/>
+      <c r="I284" s="1"/>
+    </row>
+    <row r="285" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+      <c r="H285" s="1"/>
+      <c r="I285" s="1"/>
+    </row>
+    <row r="286" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+      <c r="H286" s="1"/>
+      <c r="I286" s="1"/>
+    </row>
+    <row r="287" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="1"/>
+      <c r="I287" s="1"/>
+    </row>
+    <row r="288" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1"/>
+      <c r="I288" s="1"/>
+    </row>
+    <row r="289" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+      <c r="H289" s="1"/>
+      <c r="I289" s="1"/>
+    </row>
+    <row r="290" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="1"/>
+      <c r="I290" s="1"/>
+    </row>
+    <row r="291" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+      <c r="H291" s="1"/>
+      <c r="I291" s="1"/>
+    </row>
+    <row r="292" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="1"/>
+      <c r="I292" s="1"/>
+    </row>
+    <row r="293" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="1"/>
+      <c r="I293" s="1"/>
+    </row>
+    <row r="294" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1"/>
+      <c r="I294" s="1"/>
+    </row>
+    <row r="295" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="1"/>
+      <c r="I295" s="1"/>
+    </row>
+    <row r="296" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+      <c r="H296" s="1"/>
+      <c r="I296" s="1"/>
+    </row>
+    <row r="297" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="1"/>
+      <c r="I297" s="1"/>
+    </row>
+    <row r="298" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+      <c r="G298" s="1"/>
+      <c r="H298" s="1"/>
+      <c r="I298" s="1"/>
+    </row>
+    <row r="299" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+      <c r="G299" s="1"/>
+      <c r="H299" s="1"/>
+      <c r="I299" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
+    <sortCondition ref="C2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Documents/SneakR-Test.xlsx
+++ b/Documents/SneakR-Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R01\Documents\GitHub\sneakR\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15924CEC-EFD9-4405-BC87-4B969E714661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BD7060-1C46-425A-901F-9CD6A653A2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2F5C614F-0953-44C5-BF18-382FEDFD8664}"/>
   </bookViews>
@@ -226,7 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,13 +241,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -259,10 +271,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -273,8 +286,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Jó" xfId="1" builtinId="26"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -590,7 +607,7 @@
   <dimension ref="A1:I299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="125.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -642,7 +659,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -665,7 +682,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -688,7 +705,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -711,7 +728,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -734,7 +751,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -757,7 +774,7 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -780,7 +797,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -803,7 +820,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -826,7 +843,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -849,7 +866,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -872,7 +889,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="4" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Documents/SneakR-Test.xlsx
+++ b/Documents/SneakR-Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R01\Documents\GitHub\sneakR\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BD7060-1C46-425A-901F-9CD6A653A2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E5BDB9-4F1B-4F95-8EBA-D7BBCE347DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2F5C614F-0953-44C5-BF18-382FEDFD8664}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>Teszt eset azonosító</t>
   </si>
@@ -220,13 +220,58 @@
   </si>
   <si>
     <t>Sikeres</t>
+  </si>
+  <si>
+    <t>Tesztelt szoftver</t>
+  </si>
+  <si>
+    <t>Dokumentumot készítette</t>
+  </si>
+  <si>
+    <t>Tesztesetek rögzítésének dátuma</t>
+  </si>
+  <si>
+    <t>SneakR - vállalat protípusa</t>
+  </si>
+  <si>
+    <t>Kreszl Tamás</t>
+  </si>
+  <si>
+    <t>2024.9.01 - 2025.04.19</t>
+  </si>
+  <si>
+    <t>TESTCASE_12</t>
+  </si>
+  <si>
+    <t>TESTCASE_13</t>
+  </si>
+  <si>
+    <t>TESTCASE_14</t>
+  </si>
+  <si>
+    <t>TESTCASE_15</t>
+  </si>
+  <si>
+    <t>Visszatérés a választó oldalra a Webshopban a bal felső ikonnal</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a felhasználó visszajut-e a választó oldalra, ha a webshop felület bal felső sarkában lévő ikonra kattint.</t>
+  </si>
+  <si>
+    <t>1. Navigálj el az alkalmazás egy tetszőleges aloldalára (ami nem a választó oldal). 2. Azonosítsd a képernyő bal felső sarkában található ikont. 3. Kattints a bal felső ikonra.</t>
+  </si>
+  <si>
+    <t>Az alkalmazás sikeresen visszanavigál a választó oldalra. A választó oldal tartalma helyesen jelenik meg.</t>
+  </si>
+  <si>
+    <t>Az alkalmazás visszanavigált a választó oldalra.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,8 +293,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFF3F3F3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +312,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7380EC"/>
+        <bgColor rgb="FF7380EC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -270,12 +327,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -287,6 +406,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -604,347 +744,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5905388-1A89-4080-AA43-ED2C44BC5EE1}">
-  <dimension ref="A1:I299"/>
+  <dimension ref="A1:J303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="125.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="35.7109375" style="3"/>
+    <col min="1" max="1" width="41.140625" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="35.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="6" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="4" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="7" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="4" t="s">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="4" t="s">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="9" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="4" t="s">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="10" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="4" t="s">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="11" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="4" t="s">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="12" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="4" t="s">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="13" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="J13" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="J14" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="J15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="J16" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="F17" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
+      <c r="J17" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -952,9 +1095,12 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -962,9 +1108,12 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -972,9 +1121,9 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -982,9 +1131,9 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -992,9 +1141,9 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1002,9 +1151,9 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1012,9 +1161,9 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1022,9 +1171,9 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1032,9 +1181,9 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1042,9 +1191,9 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1052,9 +1201,9 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1062,9 +1211,9 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1072,9 +1221,9 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1082,9 +1231,9 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1092,9 +1241,9 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1102,9 +1251,9 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1112,9 +1261,9 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1122,9 +1271,9 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1132,9 +1281,9 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1142,9 +1291,9 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1152,9 +1301,9 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1162,9 +1311,9 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1172,9 +1321,9 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1182,9 +1331,9 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1192,9 +1341,9 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1202,9 +1351,9 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1212,9 +1361,9 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1222,9 +1371,9 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1232,9 +1381,9 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1242,9 +1391,9 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1252,9 +1401,9 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1262,9 +1411,9 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1272,9 +1421,9 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1282,9 +1431,9 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1292,9 +1441,9 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1302,9 +1451,9 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1312,9 +1461,9 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1322,9 +1471,9 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1332,9 +1481,9 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1342,9 +1491,9 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1352,9 +1501,9 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1362,9 +1511,9 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1372,9 +1521,9 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1382,9 +1531,9 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1392,9 +1541,9 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -1402,9 +1551,9 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1412,9 +1561,9 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -1422,9 +1571,9 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -1432,9 +1581,9 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="1"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -1442,9 +1591,9 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -1452,9 +1601,9 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="1"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -1462,9 +1611,9 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -1472,9 +1621,9 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="1"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -1482,9 +1631,9 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -1492,9 +1641,9 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -1502,9 +1651,9 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -1512,9 +1661,9 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="1"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -1522,9 +1671,9 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="1"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -1532,9 +1681,9 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="1"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -1542,9 +1691,9 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -1552,9 +1701,9 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="1"/>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -1562,9 +1711,9 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="1"/>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -1572,9 +1721,9 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="1"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -1582,9 +1731,9 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="1"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -1592,9 +1741,9 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -1602,9 +1751,9 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -1612,9 +1761,9 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -1622,9 +1771,9 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -1632,9 +1781,9 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -1642,9 +1791,9 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -1652,9 +1801,9 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -1662,9 +1811,9 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -1672,9 +1821,9 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -1682,9 +1831,9 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -1692,9 +1841,9 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -1702,9 +1851,9 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -1712,9 +1861,9 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -1722,9 +1871,9 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -1732,9 +1881,9 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -1742,9 +1891,9 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -1752,9 +1901,9 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -1762,9 +1911,9 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -1772,9 +1921,9 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -1782,9 +1931,9 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -1792,9 +1941,9 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -1802,9 +1951,9 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -1812,9 +1961,9 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -1822,9 +1971,9 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -1832,9 +1981,9 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -1842,9 +1991,9 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="1"/>
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -1852,9 +2001,9 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="1"/>
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -1862,9 +2011,9 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="1"/>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -1872,9 +2021,9 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="1"/>
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -1882,9 +2031,9 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="1"/>
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -1892,9 +2041,9 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="1"/>
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -1902,9 +2051,9 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="1"/>
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -1912,9 +2061,9 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="1"/>
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -1922,9 +2071,9 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="1"/>
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -1932,9 +2081,9 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="1"/>
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -1942,9 +2091,9 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="1"/>
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -1952,9 +2101,9 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="1"/>
+      <c r="J118" s="1"/>
+    </row>
+    <row r="119" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -1962,9 +2111,9 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="1"/>
+      <c r="J119" s="1"/>
+    </row>
+    <row r="120" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -1972,9 +2121,9 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="1"/>
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -1982,9 +2131,9 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="1"/>
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -1992,9 +2141,9 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="1"/>
+      <c r="J122" s="1"/>
+    </row>
+    <row r="123" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -2002,9 +2151,9 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="1"/>
+      <c r="J123" s="1"/>
+    </row>
+    <row r="124" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -2012,9 +2161,9 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="1"/>
+      <c r="J124" s="1"/>
+    </row>
+    <row r="125" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -2022,9 +2171,9 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="1"/>
+      <c r="J125" s="1"/>
+    </row>
+    <row r="126" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -2032,9 +2181,9 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="1"/>
+      <c r="J126" s="1"/>
+    </row>
+    <row r="127" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -2042,9 +2191,9 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="1"/>
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -2052,9 +2201,9 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="1"/>
+      <c r="J128" s="1"/>
+    </row>
+    <row r="129" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -2062,9 +2211,9 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="1"/>
+      <c r="J129" s="1"/>
+    </row>
+    <row r="130" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -2072,9 +2221,9 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="1"/>
+      <c r="J130" s="1"/>
+    </row>
+    <row r="131" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -2082,9 +2231,9 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="1"/>
+      <c r="J131" s="1"/>
+    </row>
+    <row r="132" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -2092,9 +2241,9 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="1"/>
+      <c r="J132" s="1"/>
+    </row>
+    <row r="133" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -2102,9 +2251,9 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="1"/>
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -2112,9 +2261,9 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="1"/>
+      <c r="J134" s="1"/>
+    </row>
+    <row r="135" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -2122,9 +2271,9 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="1"/>
+      <c r="J135" s="1"/>
+    </row>
+    <row r="136" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -2132,9 +2281,9 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="1"/>
+      <c r="J136" s="1"/>
+    </row>
+    <row r="137" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -2142,9 +2291,9 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="1"/>
+      <c r="J137" s="1"/>
+    </row>
+    <row r="138" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -2152,9 +2301,9 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="1"/>
+      <c r="J138" s="1"/>
+    </row>
+    <row r="139" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -2162,9 +2311,9 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="1"/>
+      <c r="J139" s="1"/>
+    </row>
+    <row r="140" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -2172,9 +2321,9 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="1"/>
+      <c r="J140" s="1"/>
+    </row>
+    <row r="141" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -2182,9 +2331,9 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="1"/>
+      <c r="J141" s="1"/>
+    </row>
+    <row r="142" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -2192,9 +2341,9 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="1"/>
+      <c r="J142" s="1"/>
+    </row>
+    <row r="143" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -2202,9 +2351,9 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="1"/>
+      <c r="J143" s="1"/>
+    </row>
+    <row r="144" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -2212,9 +2361,9 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="1"/>
+      <c r="J144" s="1"/>
+    </row>
+    <row r="145" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -2222,9 +2371,9 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="1"/>
+      <c r="J145" s="1"/>
+    </row>
+    <row r="146" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -2232,9 +2381,9 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="1"/>
+      <c r="J146" s="1"/>
+    </row>
+    <row r="147" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -2242,9 +2391,9 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="1"/>
+      <c r="J147" s="1"/>
+    </row>
+    <row r="148" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -2252,9 +2401,9 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="1"/>
+      <c r="J148" s="1"/>
+    </row>
+    <row r="149" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -2262,9 +2411,9 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="1"/>
+      <c r="J149" s="1"/>
+    </row>
+    <row r="150" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -2272,9 +2421,9 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="1"/>
+      <c r="J150" s="1"/>
+    </row>
+    <row r="151" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -2282,9 +2431,9 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="1"/>
+      <c r="J151" s="1"/>
+    </row>
+    <row r="152" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -2292,9 +2441,9 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="1"/>
+      <c r="J152" s="1"/>
+    </row>
+    <row r="153" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -2302,9 +2451,9 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="1"/>
+      <c r="J153" s="1"/>
+    </row>
+    <row r="154" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -2312,9 +2461,9 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="1"/>
+      <c r="J154" s="1"/>
+    </row>
+    <row r="155" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -2322,9 +2471,9 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
-    </row>
-    <row r="156" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="1"/>
+      <c r="J155" s="1"/>
+    </row>
+    <row r="156" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -2332,9 +2481,9 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="1"/>
+      <c r="J156" s="1"/>
+    </row>
+    <row r="157" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -2342,9 +2491,9 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
-    </row>
-    <row r="158" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="1"/>
+      <c r="J157" s="1"/>
+    </row>
+    <row r="158" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -2352,9 +2501,9 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
-    </row>
-    <row r="159" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="1"/>
+      <c r="J158" s="1"/>
+    </row>
+    <row r="159" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -2362,9 +2511,9 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
-    </row>
-    <row r="160" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="1"/>
+      <c r="J159" s="1"/>
+    </row>
+    <row r="160" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -2372,9 +2521,9 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="1"/>
+      <c r="J160" s="1"/>
+    </row>
+    <row r="161" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -2382,9 +2531,9 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="1"/>
+      <c r="J161" s="1"/>
+    </row>
+    <row r="162" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -2392,9 +2541,9 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="1"/>
+      <c r="J162" s="1"/>
+    </row>
+    <row r="163" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -2402,9 +2551,9 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
-    </row>
-    <row r="164" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="1"/>
+      <c r="J163" s="1"/>
+    </row>
+    <row r="164" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -2412,9 +2561,9 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="1"/>
+      <c r="J164" s="1"/>
+    </row>
+    <row r="165" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -2422,9 +2571,9 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
-    </row>
-    <row r="166" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="1"/>
+      <c r="J165" s="1"/>
+    </row>
+    <row r="166" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -2432,9 +2581,9 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
-    </row>
-    <row r="167" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="1"/>
+      <c r="J166" s="1"/>
+    </row>
+    <row r="167" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -2442,9 +2591,9 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
-    </row>
-    <row r="168" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="1"/>
+      <c r="J167" s="1"/>
+    </row>
+    <row r="168" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -2452,9 +2601,9 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="1"/>
+      <c r="J168" s="1"/>
+    </row>
+    <row r="169" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -2462,9 +2611,9 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="1"/>
+      <c r="J169" s="1"/>
+    </row>
+    <row r="170" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -2472,9 +2621,9 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="1"/>
+      <c r="J170" s="1"/>
+    </row>
+    <row r="171" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -2482,9 +2631,9 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="1"/>
+      <c r="J171" s="1"/>
+    </row>
+    <row r="172" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -2492,9 +2641,9 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="1"/>
+      <c r="J172" s="1"/>
+    </row>
+    <row r="173" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -2502,9 +2651,9 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
-    </row>
-    <row r="174" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="1"/>
+      <c r="J173" s="1"/>
+    </row>
+    <row r="174" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -2512,9 +2661,9 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="1"/>
+      <c r="J174" s="1"/>
+    </row>
+    <row r="175" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -2522,9 +2671,9 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="1"/>
+      <c r="J175" s="1"/>
+    </row>
+    <row r="176" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -2532,9 +2681,9 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="1"/>
+      <c r="J176" s="1"/>
+    </row>
+    <row r="177" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -2542,9 +2691,9 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="1"/>
+      <c r="J177" s="1"/>
+    </row>
+    <row r="178" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -2552,9 +2701,9 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="1"/>
+      <c r="J178" s="1"/>
+    </row>
+    <row r="179" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -2562,9 +2711,9 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
-    </row>
-    <row r="180" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="1"/>
+      <c r="J179" s="1"/>
+    </row>
+    <row r="180" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -2572,9 +2721,9 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="1"/>
+      <c r="J180" s="1"/>
+    </row>
+    <row r="181" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -2582,9 +2731,9 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
-    </row>
-    <row r="182" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="1"/>
+      <c r="J181" s="1"/>
+    </row>
+    <row r="182" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -2592,9 +2741,9 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
-    </row>
-    <row r="183" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="1"/>
+      <c r="J182" s="1"/>
+    </row>
+    <row r="183" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -2602,9 +2751,9 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
-    </row>
-    <row r="184" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="1"/>
+      <c r="J183" s="1"/>
+    </row>
+    <row r="184" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -2612,9 +2761,9 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
-    </row>
-    <row r="185" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="1"/>
+      <c r="J184" s="1"/>
+    </row>
+    <row r="185" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -2622,9 +2771,9 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
-    </row>
-    <row r="186" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="1"/>
+      <c r="J185" s="1"/>
+    </row>
+    <row r="186" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -2632,9 +2781,9 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
-    </row>
-    <row r="187" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="1"/>
+      <c r="J186" s="1"/>
+    </row>
+    <row r="187" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -2642,9 +2791,9 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
-    </row>
-    <row r="188" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="1"/>
+      <c r="J187" s="1"/>
+    </row>
+    <row r="188" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -2652,9 +2801,9 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
-    </row>
-    <row r="189" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="1"/>
+      <c r="J188" s="1"/>
+    </row>
+    <row r="189" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -2662,9 +2811,9 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
-    </row>
-    <row r="190" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="1"/>
+      <c r="J189" s="1"/>
+    </row>
+    <row r="190" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -2672,9 +2821,9 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
-    </row>
-    <row r="191" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="1"/>
+      <c r="J190" s="1"/>
+    </row>
+    <row r="191" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -2682,9 +2831,9 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
-    </row>
-    <row r="192" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="1"/>
+      <c r="J191" s="1"/>
+    </row>
+    <row r="192" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -2692,9 +2841,9 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
-    </row>
-    <row r="193" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="1"/>
+      <c r="J192" s="1"/>
+    </row>
+    <row r="193" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -2702,9 +2851,9 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
-    </row>
-    <row r="194" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="1"/>
+      <c r="J193" s="1"/>
+    </row>
+    <row r="194" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -2712,9 +2861,9 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
-    </row>
-    <row r="195" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="1"/>
+      <c r="J194" s="1"/>
+    </row>
+    <row r="195" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -2722,9 +2871,9 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
-    </row>
-    <row r="196" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="1"/>
+      <c r="J195" s="1"/>
+    </row>
+    <row r="196" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -2732,9 +2881,9 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
-    </row>
-    <row r="197" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="1"/>
+      <c r="J196" s="1"/>
+    </row>
+    <row r="197" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -2742,9 +2891,9 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
-    </row>
-    <row r="198" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="1"/>
+      <c r="J197" s="1"/>
+    </row>
+    <row r="198" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -2752,9 +2901,9 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
-    </row>
-    <row r="199" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="1"/>
+      <c r="J198" s="1"/>
+    </row>
+    <row r="199" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -2762,9 +2911,9 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
-    </row>
-    <row r="200" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="1"/>
+      <c r="J199" s="1"/>
+    </row>
+    <row r="200" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -2772,9 +2921,9 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
-    </row>
-    <row r="201" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="1"/>
+      <c r="J200" s="1"/>
+    </row>
+    <row r="201" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -2782,9 +2931,9 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
-    </row>
-    <row r="202" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="1"/>
+      <c r="J201" s="1"/>
+    </row>
+    <row r="202" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -2792,9 +2941,9 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
-    </row>
-    <row r="203" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="1"/>
+      <c r="J202" s="1"/>
+    </row>
+    <row r="203" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -2802,9 +2951,9 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
-    </row>
-    <row r="204" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="1"/>
+      <c r="J203" s="1"/>
+    </row>
+    <row r="204" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -2812,9 +2961,9 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
-    </row>
-    <row r="205" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="1"/>
+      <c r="J204" s="1"/>
+    </row>
+    <row r="205" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -2822,9 +2971,9 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
-    </row>
-    <row r="206" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="1"/>
+      <c r="J205" s="1"/>
+    </row>
+    <row r="206" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -2832,9 +2981,9 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
-    </row>
-    <row r="207" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="1"/>
+      <c r="J206" s="1"/>
+    </row>
+    <row r="207" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -2842,9 +2991,9 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
-    </row>
-    <row r="208" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="1"/>
+      <c r="J207" s="1"/>
+    </row>
+    <row r="208" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -2852,9 +3001,9 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
-    </row>
-    <row r="209" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="1"/>
+      <c r="J208" s="1"/>
+    </row>
+    <row r="209" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -2862,9 +3011,9 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
-    </row>
-    <row r="210" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="1"/>
+      <c r="J209" s="1"/>
+    </row>
+    <row r="210" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -2872,9 +3021,9 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
-    </row>
-    <row r="211" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="1"/>
+      <c r="J210" s="1"/>
+    </row>
+    <row r="211" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -2882,9 +3031,9 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
-    </row>
-    <row r="212" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="1"/>
+      <c r="J211" s="1"/>
+    </row>
+    <row r="212" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -2892,9 +3041,9 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
-    </row>
-    <row r="213" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="1"/>
+      <c r="J212" s="1"/>
+    </row>
+    <row r="213" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -2902,9 +3051,9 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
-    </row>
-    <row r="214" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="1"/>
+      <c r="J213" s="1"/>
+    </row>
+    <row r="214" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -2912,9 +3061,9 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
-    </row>
-    <row r="215" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="1"/>
+      <c r="J214" s="1"/>
+    </row>
+    <row r="215" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -2922,9 +3071,9 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
-    </row>
-    <row r="216" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="1"/>
+      <c r="J215" s="1"/>
+    </row>
+    <row r="216" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -2932,9 +3081,9 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
-    </row>
-    <row r="217" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="1"/>
+      <c r="J216" s="1"/>
+    </row>
+    <row r="217" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -2942,9 +3091,9 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
-    </row>
-    <row r="218" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="1"/>
+      <c r="J217" s="1"/>
+    </row>
+    <row r="218" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -2952,9 +3101,9 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
-    </row>
-    <row r="219" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="1"/>
+      <c r="J218" s="1"/>
+    </row>
+    <row r="219" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -2962,9 +3111,9 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
-    </row>
-    <row r="220" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="1"/>
+      <c r="J219" s="1"/>
+    </row>
+    <row r="220" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -2972,9 +3121,9 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
-    </row>
-    <row r="221" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="1"/>
+      <c r="J220" s="1"/>
+    </row>
+    <row r="221" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -2982,9 +3131,9 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
-    </row>
-    <row r="222" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="1"/>
+      <c r="J221" s="1"/>
+    </row>
+    <row r="222" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -2992,9 +3141,9 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
-    </row>
-    <row r="223" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="1"/>
+      <c r="J222" s="1"/>
+    </row>
+    <row r="223" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -3002,9 +3151,9 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
-    </row>
-    <row r="224" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="1"/>
+      <c r="J223" s="1"/>
+    </row>
+    <row r="224" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -3012,9 +3161,9 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
-    </row>
-    <row r="225" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="1"/>
+      <c r="J224" s="1"/>
+    </row>
+    <row r="225" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -3022,9 +3171,9 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
-    </row>
-    <row r="226" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="1"/>
+      <c r="J225" s="1"/>
+    </row>
+    <row r="226" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -3032,9 +3181,9 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
-    </row>
-    <row r="227" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="1"/>
+      <c r="J226" s="1"/>
+    </row>
+    <row r="227" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -3042,9 +3191,9 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
-    </row>
-    <row r="228" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="1"/>
+      <c r="J227" s="1"/>
+    </row>
+    <row r="228" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -3052,9 +3201,9 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
-    </row>
-    <row r="229" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="1"/>
+      <c r="J228" s="1"/>
+    </row>
+    <row r="229" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -3062,9 +3211,9 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
-    </row>
-    <row r="230" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="1"/>
+      <c r="J229" s="1"/>
+    </row>
+    <row r="230" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -3072,9 +3221,9 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
-    </row>
-    <row r="231" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="1"/>
+      <c r="J230" s="1"/>
+    </row>
+    <row r="231" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -3082,9 +3231,9 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
-    </row>
-    <row r="232" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="1"/>
+      <c r="J231" s="1"/>
+    </row>
+    <row r="232" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -3092,9 +3241,9 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
-    </row>
-    <row r="233" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="1"/>
+      <c r="J232" s="1"/>
+    </row>
+    <row r="233" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -3102,9 +3251,9 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
-    </row>
-    <row r="234" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="1"/>
+      <c r="J233" s="1"/>
+    </row>
+    <row r="234" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -3112,9 +3261,9 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
-    </row>
-    <row r="235" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="1"/>
+      <c r="J234" s="1"/>
+    </row>
+    <row r="235" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -3122,9 +3271,9 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
-    </row>
-    <row r="236" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="1"/>
+      <c r="J235" s="1"/>
+    </row>
+    <row r="236" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -3132,9 +3281,9 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
-    </row>
-    <row r="237" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="1"/>
+      <c r="J236" s="1"/>
+    </row>
+    <row r="237" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -3142,9 +3291,9 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
-    </row>
-    <row r="238" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="1"/>
+      <c r="J237" s="1"/>
+    </row>
+    <row r="238" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -3152,9 +3301,9 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
-    </row>
-    <row r="239" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="1"/>
+      <c r="J238" s="1"/>
+    </row>
+    <row r="239" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -3162,9 +3311,9 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
-    </row>
-    <row r="240" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="1"/>
+      <c r="J239" s="1"/>
+    </row>
+    <row r="240" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -3172,9 +3321,9 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
-    </row>
-    <row r="241" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="1"/>
+      <c r="J240" s="1"/>
+    </row>
+    <row r="241" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -3182,9 +3331,9 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
-    </row>
-    <row r="242" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="1"/>
+      <c r="J241" s="1"/>
+    </row>
+    <row r="242" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -3192,9 +3341,9 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
-    </row>
-    <row r="243" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="1"/>
+      <c r="J242" s="1"/>
+    </row>
+    <row r="243" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -3202,9 +3351,9 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
-    </row>
-    <row r="244" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="1"/>
+      <c r="J243" s="1"/>
+    </row>
+    <row r="244" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -3212,9 +3361,9 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
-    </row>
-    <row r="245" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="1"/>
+      <c r="J244" s="1"/>
+    </row>
+    <row r="245" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -3222,9 +3371,9 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
-    </row>
-    <row r="246" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="1"/>
+      <c r="J245" s="1"/>
+    </row>
+    <row r="246" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -3232,9 +3381,9 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
-    </row>
-    <row r="247" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="1"/>
+      <c r="J246" s="1"/>
+    </row>
+    <row r="247" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -3242,9 +3391,9 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
-    </row>
-    <row r="248" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="1"/>
+      <c r="J247" s="1"/>
+    </row>
+    <row r="248" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -3252,9 +3401,9 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
-    </row>
-    <row r="249" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="1"/>
+      <c r="J248" s="1"/>
+    </row>
+    <row r="249" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -3262,9 +3411,9 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
-    </row>
-    <row r="250" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="1"/>
+      <c r="J249" s="1"/>
+    </row>
+    <row r="250" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -3272,9 +3421,9 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
-    </row>
-    <row r="251" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="1"/>
+      <c r="J250" s="1"/>
+    </row>
+    <row r="251" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -3282,9 +3431,9 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
-    </row>
-    <row r="252" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="1"/>
+      <c r="J251" s="1"/>
+    </row>
+    <row r="252" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -3292,9 +3441,9 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
-    </row>
-    <row r="253" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="1"/>
+      <c r="J252" s="1"/>
+    </row>
+    <row r="253" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -3302,9 +3451,9 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
-    </row>
-    <row r="254" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="1"/>
+      <c r="J253" s="1"/>
+    </row>
+    <row r="254" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -3312,9 +3461,9 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
-    </row>
-    <row r="255" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="1"/>
+      <c r="J254" s="1"/>
+    </row>
+    <row r="255" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -3322,9 +3471,9 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
-    </row>
-    <row r="256" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="1"/>
+      <c r="J255" s="1"/>
+    </row>
+    <row r="256" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -3332,9 +3481,9 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
-    </row>
-    <row r="257" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="1"/>
+      <c r="J256" s="1"/>
+    </row>
+    <row r="257" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -3342,9 +3491,9 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
-    </row>
-    <row r="258" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="1"/>
+      <c r="J257" s="1"/>
+    </row>
+    <row r="258" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -3352,9 +3501,9 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
-    </row>
-    <row r="259" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="1"/>
+      <c r="J258" s="1"/>
+    </row>
+    <row r="259" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -3362,9 +3511,9 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
-    </row>
-    <row r="260" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="1"/>
+      <c r="J259" s="1"/>
+    </row>
+    <row r="260" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -3372,9 +3521,9 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
-    </row>
-    <row r="261" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="1"/>
+      <c r="J260" s="1"/>
+    </row>
+    <row r="261" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -3382,9 +3531,9 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
-    </row>
-    <row r="262" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="1"/>
+      <c r="J261" s="1"/>
+    </row>
+    <row r="262" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -3392,9 +3541,9 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
-    </row>
-    <row r="263" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="1"/>
+      <c r="J262" s="1"/>
+    </row>
+    <row r="263" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -3402,9 +3551,9 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
-    </row>
-    <row r="264" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="1"/>
+      <c r="J263" s="1"/>
+    </row>
+    <row r="264" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -3412,9 +3561,9 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
-    </row>
-    <row r="265" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="1"/>
+      <c r="J264" s="1"/>
+    </row>
+    <row r="265" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -3422,9 +3571,9 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
-    </row>
-    <row r="266" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="1"/>
+      <c r="J265" s="1"/>
+    </row>
+    <row r="266" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -3432,9 +3581,9 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
-    </row>
-    <row r="267" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="1"/>
+      <c r="J266" s="1"/>
+    </row>
+    <row r="267" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -3442,9 +3591,9 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
-    </row>
-    <row r="268" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="1"/>
+      <c r="J267" s="1"/>
+    </row>
+    <row r="268" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -3452,9 +3601,9 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
-    </row>
-    <row r="269" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="1"/>
+      <c r="J268" s="1"/>
+    </row>
+    <row r="269" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -3462,9 +3611,9 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
-    </row>
-    <row r="270" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="1"/>
+      <c r="J269" s="1"/>
+    </row>
+    <row r="270" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -3472,9 +3621,9 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
-    </row>
-    <row r="271" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="1"/>
+      <c r="J270" s="1"/>
+    </row>
+    <row r="271" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -3482,9 +3631,9 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
-    </row>
-    <row r="272" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="1"/>
+      <c r="J271" s="1"/>
+    </row>
+    <row r="272" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -3492,9 +3641,9 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
-    </row>
-    <row r="273" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="1"/>
+      <c r="J272" s="1"/>
+    </row>
+    <row r="273" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -3502,9 +3651,9 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
-    </row>
-    <row r="274" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="1"/>
+      <c r="J273" s="1"/>
+    </row>
+    <row r="274" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -3512,9 +3661,9 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
-    </row>
-    <row r="275" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="1"/>
+      <c r="J274" s="1"/>
+    </row>
+    <row r="275" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -3522,9 +3671,9 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
-    </row>
-    <row r="276" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="1"/>
+      <c r="J275" s="1"/>
+    </row>
+    <row r="276" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -3532,9 +3681,9 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
-    </row>
-    <row r="277" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="1"/>
+      <c r="J276" s="1"/>
+    </row>
+    <row r="277" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -3542,9 +3691,9 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
-    </row>
-    <row r="278" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="1"/>
+      <c r="J277" s="1"/>
+    </row>
+    <row r="278" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -3552,9 +3701,9 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
-    </row>
-    <row r="279" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="1"/>
+      <c r="J278" s="1"/>
+    </row>
+    <row r="279" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -3562,9 +3711,9 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
-    </row>
-    <row r="280" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="1"/>
+      <c r="J279" s="1"/>
+    </row>
+    <row r="280" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -3572,9 +3721,9 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
-    </row>
-    <row r="281" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="1"/>
+      <c r="J280" s="1"/>
+    </row>
+    <row r="281" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -3582,9 +3731,9 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
-    </row>
-    <row r="282" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="1"/>
+      <c r="J281" s="1"/>
+    </row>
+    <row r="282" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -3592,9 +3741,9 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
-    </row>
-    <row r="283" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="1"/>
+      <c r="J282" s="1"/>
+    </row>
+    <row r="283" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -3602,9 +3751,9 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
-    </row>
-    <row r="284" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="1"/>
+      <c r="J283" s="1"/>
+    </row>
+    <row r="284" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -3612,9 +3761,9 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
-    </row>
-    <row r="285" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="1"/>
+      <c r="J284" s="1"/>
+    </row>
+    <row r="285" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -3622,9 +3771,9 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
-    </row>
-    <row r="286" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="1"/>
+      <c r="J285" s="1"/>
+    </row>
+    <row r="286" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -3632,9 +3781,9 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
-    </row>
-    <row r="287" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="1"/>
+      <c r="J286" s="1"/>
+    </row>
+    <row r="287" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -3642,9 +3791,9 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
-    </row>
-    <row r="288" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="1"/>
+      <c r="J287" s="1"/>
+    </row>
+    <row r="288" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -3652,9 +3801,9 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
-    </row>
-    <row r="289" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="1"/>
+      <c r="J288" s="1"/>
+    </row>
+    <row r="289" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -3662,9 +3811,9 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
-    </row>
-    <row r="290" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="1"/>
+      <c r="J289" s="1"/>
+    </row>
+    <row r="290" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -3672,9 +3821,9 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
-    </row>
-    <row r="291" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="1"/>
+      <c r="J290" s="1"/>
+    </row>
+    <row r="291" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -3682,9 +3831,9 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
-    </row>
-    <row r="292" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="1"/>
+      <c r="J291" s="1"/>
+    </row>
+    <row r="292" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -3692,9 +3841,9 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
-    </row>
-    <row r="293" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="1"/>
+      <c r="J292" s="1"/>
+    </row>
+    <row r="293" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -3702,9 +3851,9 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
-    </row>
-    <row r="294" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="1"/>
+      <c r="J293" s="1"/>
+    </row>
+    <row r="294" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -3712,9 +3861,9 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
-    </row>
-    <row r="295" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="1"/>
+      <c r="J294" s="1"/>
+    </row>
+    <row r="295" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -3722,9 +3871,9 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
-    </row>
-    <row r="296" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="1"/>
+      <c r="J295" s="1"/>
+    </row>
+    <row r="296" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -3732,9 +3881,9 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
-    </row>
-    <row r="297" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="1"/>
+      <c r="J296" s="1"/>
+    </row>
+    <row r="297" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -3742,9 +3891,9 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
-    </row>
-    <row r="298" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="1"/>
+      <c r="J297" s="1"/>
+    </row>
+    <row r="298" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -3752,9 +3901,9 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
-    </row>
-    <row r="299" spans="2:9" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B299" s="1"/>
+      <c r="J298" s="1"/>
+    </row>
+    <row r="299" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -3762,10 +3911,51 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
+      <c r="J299" s="1"/>
+    </row>
+    <row r="300" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="1"/>
+      <c r="I300" s="1"/>
+      <c r="J300" s="1"/>
+    </row>
+    <row r="301" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+      <c r="H301" s="1"/>
+      <c r="I301" s="1"/>
+      <c r="J301" s="1"/>
+    </row>
+    <row r="302" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
+      <c r="H302" s="1"/>
+      <c r="I302" s="1"/>
+      <c r="J302" s="1"/>
+    </row>
+    <row r="303" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+      <c r="G303" s="1"/>
+      <c r="H303" s="1"/>
+      <c r="I303" s="1"/>
+      <c r="J303" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
-    <sortCondition ref="C2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:D6">
+    <sortCondition ref="D6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documents/SneakR-Test.xlsx
+++ b/Documents/SneakR-Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R01\Documents\GitHub\sneakR\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E5BDB9-4F1B-4F95-8EBA-D7BBCE347DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82923301-6FAF-4198-8473-17F777D97D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2F5C614F-0953-44C5-BF18-382FEDFD8664}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="173">
   <si>
     <t>Teszt eset azonosító</t>
   </si>
@@ -265,13 +265,313 @@
   </si>
   <si>
     <t>Az alkalmazás visszanavigált a választó oldalra.</t>
+  </si>
+  <si>
+    <t>Profil oldalra navigálás a jobb felső ikonnal</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a felhasználó átirányításra kerül-e a saját profil oldalára, ha a felület jobb felső sarkában található profil ikonra kattint.</t>
+  </si>
+  <si>
+    <t>1. (Előfeltétel: A felhasználó be van jelentkezve.) 2. Nyiss meg egy tetszőleges oldalt az alkalmazásban, ahol a profil ikon látható (általában a legtöbb oldalon látható bejelentkezés után). 3. Keresd meg a jobb felső sarokban található profil ikont. 4. Kattints a profil ikonra.</t>
+  </si>
+  <si>
+    <t>Az alkalmazás sikeresen átirányít a felhasználó profil oldalára. A profil oldal tartalma (pl. felhasználónév, egyéb adatok) helyesen jelenik meg.</t>
+  </si>
+  <si>
+    <t>Az alkalmazás a profil oldalra navigált.</t>
+  </si>
+  <si>
+    <t>Kosár előnézet megjelenítése ikonra kattintva</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a jobb felső sarokban található kosár ikonra kattintva megjelenik-e a kosár tartalmának előnézete (ún. mini kosár), anélkül, hogy a teljes kosár oldalra navigálnánk.</t>
+  </si>
+  <si>
+    <t>1. Navigálj az alkalmazás egy olyan oldalára, ahol a kosár ikon látható (ez általában a fejlécben van, így a legtöbb oldalon elérhető). 2. Keresd meg a jobb felső sarokban (vagy a fejléc releváns részén) található kosár ikont. 3. Kattints a kosár ikonra.</t>
+  </si>
+  <si>
+    <t>Megjelenik egy kis méretű panel, amely összefoglalja a kosár aktuális tartalmát (pl. termékek neve, darabszáma, esetleg képe és a végösszeg). Fontos, hogy az alkalmazás nem navigál el a teljes oldalról, a mini kosár az aktuális tartalom felett/mellett jelenik meg.</t>
+  </si>
+  <si>
+    <t>Megjelent a mini kosár a várt tartalommal.</t>
+  </si>
+  <si>
+    <t>Teljes kosár oldalra navigálás a mini kosárból</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a mini kosár nézetben található "Kosár Megtekintése" gombra kattintva a felhasználó átirányításra kerül-e a teljes kosár oldalra (a várt oldal útvonala: .../webshop-cart).</t>
+  </si>
+  <si>
+    <t>1. Tegyél egy terméket a kosárba. 2. Kattints a jobb felső sarokban található kosár ikonra a mini kosár előnézet megnyitásához. 3. A megnyílt mini kosár nézetben keresd meg és azonosítsd a "Kosár Megtekintése" feliratú gombot. 5. Kattints a "Kosár Megtekintése" gombra.</t>
+  </si>
+  <si>
+    <t>Az alkalmazás sikeresen átirányít a teljes kosár oldalra. A böngésző címsorában az oldal elérési útja ".../webshop-cart"-ra  változik. A teljes kosár oldal betöltődik, és helyesen jeleníti meg a kosárban lévő termék(ek)et és az egyéb kosár információkat</t>
+  </si>
+  <si>
+    <t>Az alkalmazás sikeresen a 'webshop-cart' oldalra navigált.</t>
+  </si>
+  <si>
+    <t>Üres kosár oldal (webshop-cart) ellenőrzése</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a webshop-cart oldal helyesen jelzi-e, ha a kosár üres (megjelenik az "A kosár üres" üzenet), és biztosít-e visszalépési lehetőséget ("vásárlás folytatása" gombbal).</t>
+  </si>
+  <si>
+    <t>1. Győződj meg róla, hogy a kosár  üres. 2. Navigálj a teljes kosár oldalra. Ezt megteheted a fejlécben lévő kosár ikonra, majd kis kosárban a "Kosár Megtekintése" gombra kattintva. 3. Figyeld meg az oldal tartalmát. Keresd az "A kosár üres" szöveges üzenetet. 4. Keresd meg a "vásárlás folytatása" gombot az oldalon. 5. Kattints a "vásárlás folytatása" gombra.</t>
+  </si>
+  <si>
+    <t>Az oldalon jól láthatóan megjelenik az "A kosár üres" (vagy ezzel egyenértékű, pl. "Jelenleg nincs termék a kosaradban") üzenet.</t>
+  </si>
+  <si>
+    <t>Az üzenet és a gomb megjelent. A gomb a főoldalra navigált.</t>
+  </si>
+  <si>
+    <t>Továblépés a kosárból a szállítási adatok oldalára</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy awebshop-cart oldalról (amikor van termék a kosárban) a megfelelő gombra (pl. "Tovább ") kattintva a felhasználó eljut-e a checkout folyamat következő lépésére, ahol a szállítási adatait tudja megadni.</t>
+  </si>
+  <si>
+    <t>1. Győződj meg róla, hogy van legalább egy termék a kosárban. 2. Navigálj a teljes kosár oldalra (webshop-cart). 4. Keresd meg az oldalon a Tovább gombot. 5. Kattints erre a gombra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Az alkalmazás sikeresen átirányít a checkout folyamat következő oldalára, amely a szállítási adatok bekérésére szolgál. 2. Az új oldalon megjelennek az űrlapmezők a szállítási információk megadásához.3. A továbblépés gomb a kosár oldalon vagy nem látható, ha a kosár üres. </t>
+  </si>
+  <si>
+    <t>Sikeres átirányítás a szállítási oldalra, az űrlapmezők megjelentek.</t>
+  </si>
+  <si>
+    <t>Termékár konzisztenciájának ellenőrzése (Kosár oldal)</t>
+  </si>
+  <si>
+    <r>
+      <t>Annak ellenőrzése, hogy a kiválasztott és kosárba helyezett termék (egy cipő) ára a kosár (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>webshop-cart) oldalon megegyezik-e azzal az árral, ami a termék adatlapján vagy listáján szerepelt a kosárba helyezés pillanatában.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Válassz ki egy konkrét cipőt a webshopban. 2. Jegyezd fel a cipő pontosan feltüntetett áráról. 3. Helyezd a kiválasztott cipőt a kosárba. 4. Navigálj a teljes kosár oldalra. 5. Keresd meg a kosár tartalmában az imént hozzáadott cipőt. 6. Azonosítsd az adott terméksoron feltüntetett árat. 7. Hasonlítsd össze a kosár oldalon látott árat a 2. lépésben feljegyzett árral.</t>
+  </si>
+  <si>
+    <t>Awebshop-cartoldalon, a kosárba helyezett cipő sorában feltüntetett ár pontosan megegyezik a 2. lépésben feljegyzett árral. Az ár formátuma (pl. pénznem, tagolás) is helyes.</t>
+  </si>
+  <si>
+    <t>Az ár a kosár oldalon megegyezett a termékoldalon látott árral.</t>
+  </si>
+  <si>
+    <t>Rendelés leadása utánvételes fizetéssel a webshopban</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a fizetési oldalon az "Utánvétel" opció kiválasztása után a felhasználó sikeresen le tudja-e adni a rendelését a véglegesítő gombra kattintva, és megjelenik-e a sikeres rendelést visszaigazoló alert.</t>
+  </si>
+  <si>
+    <t>1. Juss el a checkout folyamat fizetési mód választó oldalára. 2. Keresd meg és válaszd ki az "Utánvétel" fizetési módot.  3. Keresd meg az oldalon a rendelés véglegesítésére, elküldésére szolgáló gombot. Ennek felirata "Fizetés". 5. Kattints erre a véglegesítő gombra.</t>
+  </si>
+  <si>
+    <t>1. A rendszer sikeresen feldolgozza a rendelést az "Utánvétel" fizetési móddal. 2. Az alkalmazás feldob egy visszaigazoló alertet amely tájékoztat a sikeres rendelésről. 3. A visszaigazoló alerten egyértelműen megjelenik egy üzenet ("Köszönjük a rendelését!")</t>
+  </si>
+  <si>
+    <t>A rendelés sikeresen leadva, megjelent a köszönő alert.</t>
+  </si>
+  <si>
+    <t>Termék kosárba helyezése gyorsnézet ablakból (méretválasztással)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a webshop terméklistázó oldalán egy cipőre kattintva megjelenő gyorsnézet ablakban a felhasználó ki tudja-e választani a méretet, és utána a "Kosárba" gombbal sikeresen a kosarához tudja-e adni a terméket.</t>
+  </si>
+  <si>
+    <t>1. Navigálj a webshop főoldalára. 2. Válassz ki egy cipőt, és kattints rá. 3. Ellenőrizd, hogy az ablakban a kiválasztott termék adatai jelennek-e meg (terméknév, kép, ár). 4. Keresd meg a méretválasztó részt ("Válassz méretet:"). Ellenőrizd, hogy mutatja-e az elérhető méret(ek)et. 5. Figyeld meg a "Kosárba" gombot. Ellenőrizd, hogy kezdetben (méretválasztás előtt) inaktív-e (kiszürkített, nem kattintható). 6. Válassz ki egy elérhető méretet a gombok közül. 7. Ellenőrizd, hogy a méret kiválasztása után a "Kosárba" gomb aktívvá vált-e . 8. Kattints az  "Kosárba" gombra.</t>
+  </si>
+  <si>
+    <t>1. A termékre kattintva a gyorsnézet ablak sikeresen megjelenik. 2. Az ablak a megfelelő termék adatait (név, kép, ár) tartalmazza. 3. A méretválasztó elérhető, és a választható méretek megjelennek. 4. A "Kosárba" gomb kezdetben, méretválasztás előtt, inaktív. 5. Egy elérhető méret kiválasztása után a "Kosárba" gomb aktívvá (kattinthatóvá) válik. 6. Az aktív "Kosárba" gombra kattintva a kiválasztott méretű termék sikeresen bekerül a kosárba. 7. A sikeres kosárba helyezés után valamilyen vizuális visszajelzés történik:  a popup ablak bezáródik.</t>
+  </si>
+  <si>
+    <t>A popup megjelent, az adatok helyesek voltak, a gomb állapota megfelel-t a vártnak. A kosárba helyezés után eltünt a popup.</t>
+  </si>
+  <si>
+    <t>Kosár ellenőrzése gyorsnézetből való hozzáadás után (Mini kosár)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy miután a felhasználó sikeresen hozzáadott egy terméket (cipőt, mérettel) a kosárhoz a gyorsnézet ablakból (TESZT_011), ez a termék megjelenik-e a fejlécben lévő kosár ikonra kattintva megnyíló mini kosár előnézetben.</t>
+  </si>
+  <si>
+    <t>A mini kosárban megjelent a hozzáadott cipő, helyes névvel, mérettel, és a várt árral.</t>
+  </si>
+  <si>
+    <t>TESTCASE_16</t>
+  </si>
+  <si>
+    <t>TESTCASE_17</t>
+  </si>
+  <si>
+    <t>TESTCASE_18</t>
+  </si>
+  <si>
+    <t>TESTCASE_19</t>
+  </si>
+  <si>
+    <t>TESTCASE_20</t>
+  </si>
+  <si>
+    <t>TESTCASE_21</t>
+  </si>
+  <si>
+    <t>TESTCASE_22</t>
+  </si>
+  <si>
+    <t>TESTCASE_23</t>
+  </si>
+  <si>
+    <t>TESTCASE_24</t>
+  </si>
+  <si>
+    <t>TESTCASE_25</t>
+  </si>
+  <si>
+    <t>TESTCASE_26</t>
+  </si>
+  <si>
+    <t>TESTCASE_27</t>
+  </si>
+  <si>
+    <t>TESTCASE_28</t>
+  </si>
+  <si>
+    <t>TESTCASE_29</t>
+  </si>
+  <si>
+    <t>TESTCASE_30</t>
+  </si>
+  <si>
+    <t>TESTCASE_31</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Hajtsd végre sikeresen a TESTCASE_20 teszteset összes lépését. 2. Közvetlenül a sikeres kosárba helyezést, a popup bezárása után keresd meg a weboldal fejlécében a fő kosár ikont. 3. Kattints erre a kosár ikonra. 4. Figyeld meg a megjelenő mini kosár előnézetet. 5. Ellenőrizd, hogy az 1. lépésben kosárba helyezett cipő szerepel-e a mini kosár tartalmában. 6. Ellenőrizd, hogy a cipő neve, a kiválasztott mérete és az ára helyesen, az 1. lépésben rögzített adatoknak megfelelően jelenik-e meg.</t>
+  </si>
+  <si>
+    <t>1. A fejlécben található kosár ikonra kattintva a mini kosár előnézet sikeresen megjelenik. 2. A mini kosár listájában egyértelműen azonosítható az a cipő, amelyet az előző (TESTCASE_20) lépésben adtunk a kosárhoz. 3. A termék mellett helyesen szerepel a kiválasztott méret. 4. A termék ára megegyezik azzal, amit a gyorsnézet ablakban láttunk és a kosárba helyeztünk.</t>
+  </si>
+  <si>
+    <t>Termék törlése a kosár oldalon (X ikon)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a teljes kosár oldalon (webshop-cart) a kosárban lévő termék sorában található eltávolítás ikonra ('piros x') kattintva a termék sikeresen törlődik-e a kosárból.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Győződj meg róla, hogy van legalább egy termék a kosárban. 2. Navigálj a teljes kosár oldalra (a webshop-cart URL címre, vagy a mini kosárból a "Kosár Megtekintése" gombbal). 3. Keresd meg a kosárban lévő lista tételsorai között azt a cipőt, amit törölni szeretnél. 4. Azonosítsd a cipő terméksorához tartozó törlés ikont  egy 'piros x'-et. 5. Kattints erre a 'piros x' ikonra.</t>
+  </si>
+  <si>
+    <t>1. A 'piros x' ikonra  kattintás után a termék (a cipő) eltűnik a kosár oldalról. 2. A kosár oldala dinamikusan frissül Ha ez volt az egyetlen termék a kosárban, akkor az oldal az üres kosár állapotot mutatja (megjelenik az "A kosár üres" üzenet és a "vásárlás folytatása" gomb). * Ha voltak más termékek is a kosárban, azok a listában maradnak, de a kosár végösszege automatikusan újraszámolódik és csökken a törölt termék értékével.</t>
+  </si>
+  <si>
+    <t>A piros x-re kattintva a termék eltűnt, és megjelent az üres kosár üzenet.</t>
+  </si>
+  <si>
+    <t>Hamburger menü megnyitása</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a jobb felső sarokban található, három vízszintes vonalból álló ikonra (hamburger ikon) kattintva a felhasználó számára megjelenik-e a navigációs menü.</t>
+  </si>
+  <si>
+    <t>1. Nyisd meg a weboldalt. 2. Keresd meg és azonosítsd a jobb felső sarokban a három vízszintes vonalból álló ikont (☰). 3. Kattints erre a hamburger ikonra.</t>
+  </si>
+  <si>
+    <t>1. Az ikonra kattintva egy navigációs menü sikeresen megjelenik a képernyőn (pl. oldalról becsúszik). 2. Az oldal többi tartalma vizuálisan háttérbe kerülhet (pl. enyhén elsötétülhet), és esetleg inaktívvá válhat (nem kattintható), amíg a menü nyitva van.</t>
+  </si>
+  <si>
+    <t>A menü sikeresen megjelent oldalról becsúszva, a menüpontok láthatóak voltak, a háttér elsötétült.</t>
+  </si>
+  <si>
+    <t>Márkák almenü/lista megjelenítése a hamburger menüben</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a már kinyitott hamburger menüben a "Márkák" menüpontra kattintva megjelennek-e a választható márkák.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Nyisd meg a hamburger menüt. 2. Keresd meg a megnyitott hamburger menüben a "Márkák" feliratú menüpontot. 3. Kattints erre a "Márkák" menüpontra.</t>
+  </si>
+  <si>
+    <t>1. A "Márkák" menüpontra kattintva a menün belül megjelenik az elérhető márkák listája. 2. A listában szereplő márkanevek (pl. Nike, Adidas, Puma stb.) láthatóak és kattinthatóak.</t>
+  </si>
+  <si>
+    <t>A Márkák menüpont alatt megjelent a márkák listája (Nike, Adidas...).</t>
+  </si>
+  <si>
+    <t>Info almenü tartalmának ellenőrzése (Hamburger menü)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a kinyitott hamburger menüben az "Info" menüpontra kattintva megjelenik-e a várt almenü, amely tartalmazza a "Rólunk", "GYIK" és "Kapcsolat" menüpontokat.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Nyisd meg a hamburger menüt. 2. Keresd meg a megnyitott hamburger menüben az "Info" feliratú menüpontot. 3. Kattints erre az "Info" menüpontra.</t>
+  </si>
+  <si>
+    <t>1. Az "Info" menüpontra kattintva a menün belül egy lista jelenik meg. 2. Ez a lista tartalmazza a következő három menüpontot: * "Rólunk" * "GYIK" * "Kapcsolat" 3. Ezek a menüpontok kattintható linkek, amelyek a megfelelő információs oldalakra vezetnek.</t>
+  </si>
+  <si>
+    <t>Az almenü a várt módon lenyílt, és tartalmazta mindhárom menüpontot: Rólunk, GYIK, Kapcsolat.</t>
+  </si>
+  <si>
+    <t>Navigálás a 'Rólunk' oldalra (Hamburger menü)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a hamburger menüben az "Info" almenü alatt található "Rólunk" menüpontra kattintva a felhasználó sikeresen átirányításra kerül-e a "Rólunk" (about) információs oldalra.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Nyisd meg a hamburger menüt. 2. *(Előfeltétel)* Nyisd le az "Info" almenüt az "Info" menüpontra kattintva. 3. Az "Info" almenüben keresd meg és azonosítsd a "Rólunk" feliratú menüpontot. 4. Kattints a "Rólunk" menüpontra.</t>
+  </si>
+  <si>
+    <t>1. A "Rólunk" linkre kattintás után az alkalmazás sikeresen átirányítja a felhasználót a "Rólunk" tartalmú oldalra.  2. Az újonnan betöltött oldal tartalma a cégről/webshopról szóló információkat jeleníti meg.</t>
+  </si>
+  <si>
+    <t>A Rólunk oldal sikeresen betöltődött, a megfelelő tartalommal</t>
+  </si>
+  <si>
+    <t>Navigálás a GYIK oldalra a 'Rólunk' oldalról</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a "Rólunk" (about) oldalon elhelyezett "GYIK" gombra vagy linkre kattintva a felhasználó sikeresen átirányításra kerül-e a Gyakran Ismételt Kérdések (GYIK) oldalra.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Navigálj a weboldal "Rólunk" oldalára. Ezt megteheted például a hamburger menüből az "Info" -&gt; "Rólunk" útvonalon. 2. A "Rólunk" oldalon keresd meg a "GYIK" feliratú kattintható elemet.</t>
+  </si>
+  <si>
+    <t>1. A "GYIK" elemre kattintás után az alkalmazás sikeresen átirányítja a felhasználót a GYIK  oldalra. 2. A böngésző címsorában az oldal URL címe megváltozik, és a GYIK oldal elérési útját ../GYIK. 3. Az újonnan betöltött oldal tartalma kérdéseket és válaszokat listáz a  termékekkel, szállítással, stb. kapcsolatban.</t>
+  </si>
+  <si>
+    <t>A Rólunk oldalon talált GYIK linkre kattintva sikeresen átjutottam a /gyik oldalra, ahol kérdések és válaszok voltak.</t>
+  </si>
+  <si>
+    <t>Navigálás a Kapcsolat oldalra a 'Rólunk' oldalról</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a "Rólunk" (about) oldalon található "Kapcsolat" gombra vagy linkre kattintva a felhasználó sikeresen átirányításra kerül-e a Kapcsolat oldalra.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Navigálj a weboldal "Rólunk" oldalára lépéseivel, a hamburger menüből). 2. A "Rólunk" oldalon, annak tartalmában keresd meg a "Kapcsolat" feliratú kattintható gombot. 3. Ha találtál ilyen elemet, kattints rá.</t>
+  </si>
+  <si>
+    <t>1. A "Kapcsolat" elemre kattintás után az alkalmazás sikeresen átirányítja a felhasználót a Kapcsolat oldalra. 2. A böngésző címsorában az oldal URL címe megváltozik, és a Kapcsolat oldal elérési útját mutatja .../contact. 3. Az újonnan betöltött oldal tartalma kapcsolati információkat jelenít meg, például: kapcsolatfelvételi űrlap, cím, telefonszám, e-mail cím, stb.</t>
+  </si>
+  <si>
+    <t>A Rólunk oldalon lévő Kapcsolat linkre kattintva sikeresen átjutottam a /kapcsolat oldalra, ahol egy űrlap és cím volt.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +598,13 @@
       <color rgb="FFF3F3F3"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -747,7 +1054,7 @@
   <dimension ref="A1:J303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="125.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1070,7 +1377,7 @@
         <v>73</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1088,172 +1395,406 @@
       <c r="B18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="19" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="20" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="J20" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="J21" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="24" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="J24" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="237" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="J25" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="J26" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="28" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="29" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="31" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="J31" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="J32" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1261,9 +1802,14 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1271,9 +1817,14 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1281,9 +1832,11 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1293,7 +1846,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1303,7 +1856,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1313,7 +1866,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1323,7 +1876,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1333,7 +1886,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1343,7 +1896,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1353,7 +1906,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1363,7 +1916,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1373,7 +1926,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1383,7 +1936,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1393,7 +1946,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="3:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>

--- a/Documents/SneakR-Test.xlsx
+++ b/Documents/SneakR-Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R01\Documents\GitHub\sneakR\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82923301-6FAF-4198-8473-17F777D97D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4D4350-D1FC-4CB9-A0D9-EF88BF697DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2F5C614F-0953-44C5-BF18-382FEDFD8664}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F5C614F-0953-44C5-BF18-382FEDFD8664}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="198">
   <si>
     <t>Teszt eset azonosító</t>
   </si>
@@ -566,12 +566,87 @@
   <si>
     <t>A Rólunk oldalon lévő Kapcsolat linkre kattintva sikeresen átjutottam a /kapcsolat oldalra, ahol egy űrlap és cím volt.</t>
   </si>
+  <si>
+    <t>Ártartomány szűrő (csúszka) tesztelése</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a terméklistázó oldalon ("products" oldal) az ártartomány beállítására szolgáló csúszka (slider) megfelelően működik-e, és a beállítás után a terméklista csak a megadott árintervallumba eső termékeket mutatja-e.</t>
+  </si>
+  <si>
+    <t>1. Navigálj a products oldalra. 2. Figyeld meg a kezdeti állapotot: jegyezd fel. 3. Azonosítsd a csúszka  mozgatható fogantyúját, ahol az ár megjelenik. 4. Változtasd meg az ártartományt a csúszka segítségével: Mozgasd a maximum ár fogantyúját balra (alacsonyabb maximum ár). * 5. Figyeld meg, hogy a terméklista azonnal frissül-e a csúszka mozgatása után. 6. Vizsgáld meg a szűrés után megjelenő (frissült) terméklistát.</t>
+  </si>
+  <si>
+    <t>1. A csúszka fogantyúja könnyen mozgatható, és a beállított érték frissü mozgatás közben. 2. A szűrés alkalmazása után a terméklista frissül. 3. A frissült terméklistában **kizárólag** olyan termékek szerepelnek, amelyek ára a csúszkán beállított maximum érték közé esik. 4. Minden olyan termék, amelynek ára a beállított tartományon kívülre esik, eltűnik a listából.</t>
+  </si>
+  <si>
+    <t>A csúszka beállítása után az Alkalmaz gombra kattintva a lista helyesen frissült</t>
+  </si>
+  <si>
+    <t>Navigálás a Resell oldalra (Select oldalról)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy az alkalmazás  fő oldalán (select) a jobb oldalon található "resell" funkcióhoz tartozó elemre (szekció) kattintva a felhasználó sikeresen átirányításra kerül-e a Resell oldalra.</t>
+  </si>
+  <si>
+    <t>1. Navigálj az alkalmazás fő oldalára (select). 2. Keresd meg és azonosítsd a "select" oldalon a jobb oldalon elhelyezkedő kattintható elemet, amely a "resell" részhez tartozik. 3. Kattints erre a "resell" elemre.</t>
+  </si>
+  <si>
+    <t>1. A "resell" elemre kattintás után az alkalmazás sikeresen átirányítja a felhasználót a webshop "resell" (viszonteladói) részlegének főoldalára. 2. A böngésző címsorában az URL megváltozik, hogy tükrözze az új helyet.</t>
+  </si>
+  <si>
+    <t>A jobb oldali resell blokkra kattintva sikeresen a /resell oldalra kerültem.</t>
+  </si>
+  <si>
+    <t>Visszanavigálás a választó oldalra ikonnal (Resell oldalról)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a "resell" oldal bal felső sarkában található "SneakR" ikonra kattintva a felhasználó visszajut-e a fő "választó" (select) oldalra.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Navigálj az alkalmazás "resell" oldalára. 2. Keresd meg és azonosítsd a "resell" oldal bal felső sarkában elhelyezkedő "SneakR" ikont vagy logót. 3. Kattints erre a "SneakR" ikonra.</t>
+  </si>
+  <si>
+    <t>1. Az ikonra kattintás után az alkalmazás sikeresen visszanavigál a fő "választó" (select) oldalra. 2. A böngésző URL címe megváltozik, és a választó oldal elérési útját mutatja. 3. A választó oldal tartalma helyesen betöltődik és megjelenik.</t>
+  </si>
+  <si>
+    <t>A bal felső SneakR ikonra kattintva sikeresen visszajutottam a választó oldalra.</t>
+  </si>
+  <si>
+    <t>TESTCASE_32</t>
+  </si>
+  <si>
+    <t>TESTCASE_33</t>
+  </si>
+  <si>
+    <t>TESTCASE_34</t>
+  </si>
+  <si>
+    <t>TESTCASE_35</t>
+  </si>
+  <si>
+    <t>TESTCASE_36</t>
+  </si>
+  <si>
+    <t>Navigálás a 'Termék Eladása' oldalra (Resell)</t>
+  </si>
+  <si>
+    <t>Annak ellenőrzése, hogy a "resell" oldalon található "Eladás most" gombra kattintva a felhasználó átirányításra kerül-e arra az oldalra, ahol megkezdheti egy termék eladási folyamatát.</t>
+  </si>
+  <si>
+    <t>1. *(Előfeltétel)* Navigálj az alkalmazás "resell" oldalára. 2. Keresd meg az oldalon az "Eladás most" feliratú gombot. 4. Kattints erre az "Eladás most" gombra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. A gombra kattintás után az alkalmazás sikeresen átirányítja a felhasználót a "Termék Eladása" oldalra, amely az eladási folyamat első lépése. 2. A böngésző URL címe megváltozik. </t>
+  </si>
+  <si>
+    <t>Az 'Eladás most' gombra kattintva sikeresen átkerültem a termék feltöltési oldalra.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,13 +673,6 @@
       <color rgb="FFF3F3F3"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -701,7 +769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -732,9 +800,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1053,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5905388-1A89-4080-AA43-ED2C44BC5EE1}">
   <dimension ref="A1:J303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="125.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1495,17 +1560,17 @@
       <c r="B22" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="1" t="s">
         <v>105</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -1791,16 +1856,26 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="4" t="s">
         <v>61</v>
@@ -1810,12 +1885,22 @@
       <c r="B35" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="4" t="s">
         <v>61</v>
@@ -1825,28 +1910,54 @@
       <c r="B36" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1857,6 +1968,9 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1867,6 +1981,9 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1877,6 +1994,9 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
